--- a/kittyserver/gametools/parseExcelTool/Excel/VirtualGiftShop.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/VirtualGiftShop.xlsx
@@ -243,19 +243,37 @@
     <t>26_200</t>
   </si>
   <si>
+    <t>16_200,39_10</t>
+  </si>
+  <si>
     <t>26_380</t>
   </si>
   <si>
+    <t>16_380,39_19</t>
+  </si>
+  <si>
     <t>26_880</t>
   </si>
   <si>
+    <t>16_880,39_44</t>
+  </si>
+  <si>
     <t>26_2980</t>
   </si>
   <si>
+    <t>16_2980,39_149</t>
+  </si>
+  <si>
     <t>26_5200</t>
   </si>
   <si>
+    <t>16_5200,39_260</t>
+  </si>
+  <si>
     <t>26_13140</t>
+  </si>
+  <si>
+    <t>16_13140,39_657</t>
   </si>
   <si>
     <t>广告特效</t>
@@ -423,18 +441,33 @@
     <t>26_490</t>
   </si>
   <si>
+    <t>16_490,39_25</t>
+  </si>
+  <si>
     <t>26_840</t>
   </si>
   <si>
+    <t>16_840,39_42</t>
+  </si>
+  <si>
     <t>26_1490</t>
   </si>
   <si>
+    <t>16_1490,39_75</t>
+  </si>
+  <si>
     <t>26_3440</t>
   </si>
   <si>
+    <t>16_3440,39_172</t>
+  </si>
+  <si>
     <t>26_580</t>
   </si>
   <si>
+    <t>16_580,39_29</t>
+  </si>
+  <si>
     <t>2_999</t>
   </si>
   <si>
@@ -473,66 +506,19 @@
     <t>26_1680</t>
   </si>
   <si>
+    <t>16_1680,39_84</t>
+  </si>
+  <si>
     <t>26_8880</t>
   </si>
   <si>
+    <t>16_8880,39_444</t>
+  </si>
+  <si>
     <t>26_9990</t>
   </si>
   <si>
-    <t>16_490</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_1490</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_3440</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_380</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_580</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_880</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_1680</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_2980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_5200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_8880</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_9990</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_13140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>16_9990,39_500</t>
   </si>
 </sst>
 </file>
@@ -947,7 +933,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -973,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>38</v>
@@ -991,10 +977,10 @@
         <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>33</v>
@@ -1099,7 +1085,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>36</v>
@@ -1122,7 +1108,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1166,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E7" s="5">
         <v>4001</v>
@@ -1184,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1">
@@ -1198,16 +1184,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E8" s="6">
         <v>4002</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H8" s="1">
         <v>1000</v>
@@ -1217,7 +1203,7 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1235,16 +1221,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E9" s="5">
         <v>4003</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H9" s="1">
         <v>2500</v>
@@ -1254,7 +1240,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1272,16 +1258,16 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E10" s="6">
         <v>4004</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H10" s="1">
         <v>6000</v>
@@ -1291,7 +1277,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1309,16 +1295,16 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E11" s="5">
         <v>4005</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H11" s="1">
         <v>20000</v>
@@ -1328,7 +1314,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1340,13 +1326,13 @@
         <v>4006</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E12" s="6">
         <v>4006</v>
@@ -1355,7 +1341,7 @@
         <v>57</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1364,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1372,22 +1358,22 @@
         <v>4007</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E13" s="5">
         <v>4007</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1396,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1404,22 +1390,22 @@
         <v>4008</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E14" s="6">
         <v>4008</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1428,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1436,22 +1422,22 @@
         <v>4009</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E15" s="5">
         <v>4009</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1460,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1468,22 +1454,22 @@
         <v>4010</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E16" s="6">
         <v>4010</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1492,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1500,22 +1486,22 @@
         <v>4011</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E17" s="5">
         <v>4011</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1524,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1532,22 +1518,22 @@
         <v>4012</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E18" s="6">
         <v>4012</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1556,10 +1542,10 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1567,19 +1553,19 @@
         <v>4013</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E19" s="5">
         <v>4013</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>135</v>
@@ -1591,10 +1577,10 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1602,22 +1588,22 @@
         <v>4014</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E20" s="6">
         <v>4014</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1626,10 +1612,10 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1637,22 +1623,22 @@
         <v>4015</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E21" s="5">
         <v>4015</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1661,10 +1647,10 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E8" s="6">
         <v>4002</v>
@@ -1967,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E9" s="5">
         <v>4003</v>
@@ -2003,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E10" s="6">
         <v>4004</v>
@@ -2039,7 +2025,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E11" s="5">
         <v>4005</v>
@@ -2075,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E12" s="6">
         <v>4006</v>
@@ -2106,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E13" s="5">
         <v>4007</v>
@@ -2137,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E14" s="6">
         <v>4008</v>
@@ -2168,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E15" s="5">
         <v>4009</v>
@@ -2199,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E16" s="6">
         <v>4010</v>
@@ -2230,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E17" s="5">
         <v>4011</v>
@@ -2261,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E18" s="6">
         <v>4012</v>
@@ -2292,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E19" s="5">
         <v>4013</v>
@@ -2323,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E20" s="6">
         <v>4014</v>
@@ -2354,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E21" s="5">
         <v>4015</v>
